--- a/other2/thomas/hashing/CF_1200E_CompressWords/CF_1200E_CompressWords.xlsx
+++ b/other2/thomas/hashing/CF_1200E_CompressWords/CF_1200E_CompressWords.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4BAD55-5363-4FDB-A38A-E4500932B4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395505E-AF3C-442F-8B7C-221FDAA896A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>s</t>
   </si>
@@ -53,13 +53,19 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +86,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +104,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,15 +174,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V2"/>
+  <dimension ref="B1:V8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,50 +581,118 @@
       <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="G3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/other2/thomas/hashing/CF_1200E_CompressWords/CF_1200E_CompressWords.xlsx
+++ b/other2/thomas/hashing/CF_1200E_CompressWords/CF_1200E_CompressWords.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395505E-AF3C-442F-8B7C-221FDAA896A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1333A5E0-114F-4360-A17C-D17B45A1273D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="20">
   <si>
     <t>s</t>
   </si>
@@ -55,17 +55,46 @@
     <t>t</t>
   </si>
   <si>
-    <t>b</t>
+    <t>sample please ease in out</t>
   </si>
   <si>
-    <t>c</t>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +122,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,36 +175,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,11 +188,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,16 +227,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -221,6 +260,734 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120653</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="左大括号 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA7B4DD-E72D-43EE-9E1E-EE99B27AF66B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2420939" y="2643188"/>
+          <a:ext cx="244475" cy="412748"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146053</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>184153</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="左大括号 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC016CD2-EADE-4D43-A888-4C753358475B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2424114" y="3700464"/>
+          <a:ext cx="225428" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="左大括号 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0F0C39-7CD2-4F8A-8145-84617AED5251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2424112" y="4881562"/>
+          <a:ext cx="193675" cy="1562099"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="左大括号 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C335E2E-FDBE-47BC-8575-CB08A67C502D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2417762" y="6056312"/>
+          <a:ext cx="168276" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左大括号 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8748D31F-5DF6-41E5-95D2-5819C00E7008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2433637" y="7208837"/>
+          <a:ext cx="136526" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左大括号 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8797C8-681A-4F9C-99AC-6CA28186BA7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2401887" y="8370887"/>
+          <a:ext cx="149226" cy="3492500"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="左大括号 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B226673F-91C9-4820-8A0E-25015184F28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4425949" y="1746247"/>
+          <a:ext cx="1149350" cy="7721602"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50082"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>250824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="左大括号 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFD2833-13BA-46A7-AC14-BCA8EA8768AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3411537" y="10828337"/>
+          <a:ext cx="142876" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="左大括号 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219F0B74-3FE6-482B-821E-C4A24674E9B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3363912" y="11593512"/>
+          <a:ext cx="104776" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="左大括号 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52029CC3-CDF9-41C3-A7B8-DDCD01EE9BD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3357562" y="12533312"/>
+          <a:ext cx="187326" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="左大括号 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80053423-5919-4ADF-ABF0-7F8B2AED0D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3316287" y="13685837"/>
+          <a:ext cx="219076" cy="2127250"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271464</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="左大括号 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DEBA1B-0D37-4DBF-B67F-A1A21BEE1A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4756150" y="10287000"/>
+          <a:ext cx="531814" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,218 +1253,1174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V8"/>
+  <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="22" width="4.125" customWidth="1"/>
+    <col min="2" max="22" width="4.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
+    <row r="1" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I3" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J3" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K3" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L3" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M3" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N3" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O3" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P3" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q3" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R3" s="1">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S3" s="1">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T3" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U3" s="1">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="4" t="s">
+    <row r="4" spans="2:22" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="G3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="J4" s="9"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:22" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:22" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="H10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:22" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:22" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="H15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="H22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="H29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="H36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="H43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1">
         <v>6</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I48" s="1">
         <v>7</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J48" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
+    <row r="49" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="K50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>6</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7</v>
+      </c>
+      <c r="J53" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="K55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1">
+        <v>7</v>
+      </c>
+      <c r="J59" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="K61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>4</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5</v>
+      </c>
+      <c r="H66" s="1">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1">
+        <v>7</v>
+      </c>
+      <c r="J66" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="K68" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>6</v>
+      </c>
+      <c r="I74" s="1">
+        <v>7</v>
+      </c>
+      <c r="J74" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+    </row>
+    <row r="76" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="K76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4</v>
+      </c>
+      <c r="G79" s="1">
+        <v>5</v>
+      </c>
+      <c r="H79" s="1">
+        <v>6</v>
+      </c>
+      <c r="I79" s="1">
+        <v>7</v>
+      </c>
+      <c r="J79" s="1">
+        <v>8</v>
+      </c>
+      <c r="K79" s="1">
+        <v>9</v>
+      </c>
+      <c r="L79" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4</v>
+      </c>
+      <c r="G83" s="1">
+        <v>5</v>
+      </c>
+      <c r="H83" s="1">
+        <v>6</v>
+      </c>
+      <c r="I83" s="1">
+        <v>7</v>
+      </c>
+      <c r="J83" s="1">
+        <v>8</v>
+      </c>
+      <c r="K83" s="1">
+        <v>9</v>
+      </c>
+      <c r="L83" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="M85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4</v>
+      </c>
+      <c r="G88" s="1">
+        <v>5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>6</v>
+      </c>
+      <c r="I88" s="1">
+        <v>7</v>
+      </c>
+      <c r="J88" s="1">
+        <v>8</v>
+      </c>
+      <c r="K88" s="1">
+        <v>9</v>
+      </c>
+      <c r="L88" s="1">
+        <v>10</v>
+      </c>
+      <c r="M88" s="1">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="N88" s="1">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="O88" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>1</v>
+      <c r="I89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/other2/thomas/hashing/CF_1200E_CompressWords/CF_1200E_CompressWords.xlsx
+++ b/other2/thomas/hashing/CF_1200E_CompressWords/CF_1200E_CompressWords.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05697505-6FDF-46AE-9D03-92FCB7390818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DA6B69-2628-447F-94CF-34935BE30F71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="20">
   <si>
     <t>s</t>
   </si>
@@ -239,35 +239,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>120653</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>222249</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="左大括号 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA7B4DD-E72D-43EE-9E1E-EE99B27AF66B}"/>
+        <xdr:cNvPr id="12" name="左大括号 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B226673F-91C9-4820-8A0E-25015184F28D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2420939" y="2643188"/>
-          <a:ext cx="244475" cy="412748"/>
+        <a:xfrm rot="10800000">
+          <a:off x="4425949" y="1746247"/>
+          <a:ext cx="1149350" cy="7721602"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 50082"/>
+          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="19050"/>
@@ -299,23 +302,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>146053</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>184153</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127003</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="左大括号 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC016CD2-EADE-4D43-A888-4C753358475B}"/>
+        <xdr:cNvPr id="16" name="左大括号 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80053423-5919-4ADF-ABF0-7F8B2AED0D62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -323,8 +326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2424114" y="3700464"/>
-          <a:ext cx="225428" cy="971550"/>
+          <a:off x="3316287" y="13685837"/>
+          <a:ext cx="219076" cy="2127250"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -359,32 +362,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>223839</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="左大括号 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0F0C39-7CD2-4F8A-8145-84617AED5251}"/>
+        <xdr:cNvPr id="17" name="左大括号 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DEBA1B-0D37-4DBF-B67F-A1A21BEE1A6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2424112" y="4881562"/>
-          <a:ext cx="193675" cy="1562099"/>
+        <a:xfrm rot="10800000">
+          <a:off x="4781550" y="9785350"/>
+          <a:ext cx="842964" cy="4362450"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -419,51 +422,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="左大括号 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C335E2E-FDBE-47BC-8575-CB08A67C502D}"/>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDC7DD9-502C-4C8F-9CCD-02B468061814}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2417762" y="6056312"/>
-          <a:ext cx="168276" cy="2171700"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
+        <a:xfrm>
+          <a:off x="3552825" y="4076699"/>
+          <a:ext cx="971550" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -479,51 +489,158 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC5DA45-C341-44F0-BBF6-4D4E657CF515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="4495800"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817D6E68-1081-490E-8576-6FEA45A19B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="4514850"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="左大括号 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8748D31F-5DF6-41E5-95D2-5819C00E7008}"/>
+        <xdr:cNvPr id="21" name="矩形: 圆角 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0E26E9-11C8-4C2A-8293-507F0EFD969E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2433637" y="7208837"/>
-          <a:ext cx="136526" cy="2819400"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
+        <a:xfrm>
+          <a:off x="7172325" y="5000624"/>
+          <a:ext cx="847725" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -539,51 +656,97 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="左大括号 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8797C8-681A-4F9C-99AC-6CA28186BA7C}"/>
+        <xdr:cNvPr id="29" name="任意多边形: 形状 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57A5F9D-E57A-415F-A77F-E50ACE03878C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2401887" y="8370887"/>
-          <a:ext cx="149226" cy="3492500"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm>
+          <a:off x="4476750" y="3565498"/>
+          <a:ext cx="3181350" cy="1206527"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3181350"/>
+            <a:gd name="connsiteY0" fmla="*/ 511202 h 1206527"/>
+            <a:gd name="connsiteX1" fmla="*/ 1457325 w 3181350"/>
+            <a:gd name="connsiteY1" fmla="*/ 25427 h 1206527"/>
+            <a:gd name="connsiteX2" fmla="*/ 3181350 w 3181350"/>
+            <a:gd name="connsiteY2" fmla="*/ 1206527 h 1206527"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3181350" h="1206527">
+              <a:moveTo>
+                <a:pt x="0" y="511202"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="463550" y="210371"/>
+                <a:pt x="927100" y="-90460"/>
+                <a:pt x="1457325" y="25427"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1987550" y="141314"/>
+                <a:pt x="2911475" y="1008089"/>
+                <a:pt x="3181350" y="1206527"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
         <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -600,53 +763,2215 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190497</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="左大括号 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B226673F-91C9-4820-8A0E-25015184F28D}"/>
+        <xdr:cNvPr id="30" name="文本框 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04618CB-FE55-4793-BA2C-3A2975ABADD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648199" y="3152774"/>
+          <a:ext cx="2400301" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>ase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>合并入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>sample</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52B75B11-4DC9-48B8-A387-FF22D34AC315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="838200"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A25CC0-1178-4D72-853A-0E04926EF842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="838200"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D168A57-25C1-4868-A793-9B20519A49B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="2047875"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B48831-9BD6-4729-A52F-1C54A4B9A318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="2085975"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF433C0-62FA-4DAC-9E00-E14EBD3939BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="3543300"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C61977F-07BE-4543-A707-4B541ED4E519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="3562350"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2DC1A1-D9E9-4015-912E-2258C6C0B2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="5105400"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E2F69B-4005-4BAB-BD20-628ED0B78AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="5095875"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C041373-20B8-4286-8E2A-D9E0DF48CC76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="6591300"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502B355C-2207-4E96-B053-634DBF710B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="6581775"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35390E26-0FD5-4D4A-BFE3-5B002ADFA5C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8086725"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接连接符 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3863AB09-9F56-45C2-98F3-71C106152030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="8077200"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4967BC7C-03F4-47FD-8BFB-2F0BBCC96233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="1314450"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F661D67E-66EE-4AFD-8E5D-9D50C7D940CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="2562225"/>
+          <a:ext cx="666750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2178803A-1E06-40A4-9728-502B9B2701CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="4029075"/>
+          <a:ext cx="942975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761F4918-484F-433C-B358-3A2967F9D714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="5610225"/>
+          <a:ext cx="1276350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AB7A74-F9BA-40C9-B671-D7CC5F016416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="7096125"/>
+          <a:ext cx="1562100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直接箭头连接符 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DF4AA-DC33-4DF4-9890-A790669E609F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2581275" y="8572500"/>
+          <a:ext cx="1876425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E42DDD6-E51E-4777-ADE3-B07D04EFBB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="1619250"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直接箭头连接符 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D90B43-CFB4-4673-BFAF-40248CBEA222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="2838450"/>
+          <a:ext cx="666750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DE1124-DBE6-404A-B6F2-FB0857C6BFCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="4333875"/>
+          <a:ext cx="942975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接箭头连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C5FAAC-7D43-4165-AE55-4B2ECB7B0255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="5915025"/>
+          <a:ext cx="1276350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FF21B4-92AE-4528-B82F-7F2C70C7C7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="7429500"/>
+          <a:ext cx="1562100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接箭头连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1117DC-3311-469E-84A9-53451EA343C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="695325" y="8905875"/>
+          <a:ext cx="1876425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接连接符 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372EB768-15A9-4FA7-B738-294D6DD40725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="9553575"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接连接符 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6D387E-6351-49CC-A392-F78655D28C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="9553575"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E6EA4B-D432-47F9-82AF-9B44B1160245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="10029825"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接箭头连接符 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D0DEF7-C429-4D08-A01E-41DCEFDD8918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="10334625"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接连接符 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5623C1-88A3-4A79-8A9B-76CAC21FE7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="10582275"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直接连接符 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E79D40D-37DB-4BFA-BDB9-CF53093B3F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="10620375"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接箭头连接符 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39068D8-089E-4FAD-8F2B-94609084CE50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="11096625"/>
+          <a:ext cx="666750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直接箭头连接符 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4DB6BE9-95EF-4009-8E9D-A6647A2398E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="11372850"/>
+          <a:ext cx="666750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直接连接符 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152FAB2F-A61E-4066-8D2C-035485770BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="11896725"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接连接符 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DFFDDD-D1AB-4508-8892-ACCE4892DF00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="11915775"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直接箭头连接符 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8600A50-4A94-4790-A651-21E437A732CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="12382500"/>
+          <a:ext cx="942975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直接箭头连接符 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53516E14-FCCC-4FB2-B24D-C251FE6BA0EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="12687300"/>
+          <a:ext cx="942975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直接连接符 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C01B37-A9A8-4FAC-BC65-A72B20669D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="13306425"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直接连接符 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F091EB-397C-4741-B84A-5DFD01508D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="13296900"/>
+          <a:ext cx="0" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直接箭头连接符 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE144127-D4DC-40E4-99CE-8CF7F83BEA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="13811250"/>
+          <a:ext cx="1276350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接箭头连接符 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C178B0FE-76A5-433F-A239-F8824F4B617B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="14116050"/>
+          <a:ext cx="1276350" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形: 圆角 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D9AED4-2890-490A-9D75-0AF153B7E39E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4425949" y="1746247"/>
-          <a:ext cx="1149350" cy="7721602"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 50082"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="4810125" y="13896974"/>
+          <a:ext cx="123825" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -662,51 +2987,107 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>250824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="左大括号 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFD2833-13BA-46A7-AC14-BCA8EA8768AD}"/>
+        <xdr:cNvPr id="89" name="任意多边形: 形状 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90AABBF-CCDB-444D-9B74-E03A09D14455}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3411537" y="10828337"/>
-          <a:ext cx="142876" cy="336550"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm>
+          <a:off x="4914901" y="12087225"/>
+          <a:ext cx="3238500" cy="2266950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3246655"/>
+            <a:gd name="connsiteY0" fmla="*/ 2514600 h 2514600"/>
+            <a:gd name="connsiteX1" fmla="*/ 2114550 w 3246655"/>
+            <a:gd name="connsiteY1" fmla="*/ 1790700 h 2514600"/>
+            <a:gd name="connsiteX2" fmla="*/ 3152775 w 3246655"/>
+            <a:gd name="connsiteY2" fmla="*/ 438150 h 2514600"/>
+            <a:gd name="connsiteX3" fmla="*/ 3133725 w 3246655"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2514600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3246655" h="2514600">
+              <a:moveTo>
+                <a:pt x="0" y="2514600"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="794544" y="2325687"/>
+                <a:pt x="1589088" y="2136775"/>
+                <a:pt x="2114550" y="1790700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2640012" y="1444625"/>
+                <a:pt x="2982913" y="736600"/>
+                <a:pt x="3152775" y="438150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3322637" y="139700"/>
+                <a:pt x="3228181" y="69850"/>
+                <a:pt x="3133725" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
         <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -722,239 +3103,87 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="左大括号 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219F0B74-3FE6-482B-821E-C4A24674E9B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="90" name="文本框 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AED1BB1-8ABB-4553-AF25-643ACE4AE9E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3363912" y="11593512"/>
-          <a:ext cx="104776" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
+        <a:xfrm>
+          <a:off x="4924424" y="14239874"/>
+          <a:ext cx="2400301" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="左大括号 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52029CC3-CDF9-41C3-A7B8-DDCD01EE9BD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3357562" y="12533312"/>
-          <a:ext cx="187326" cy="1581150"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="左大括号 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80053423-5919-4ADF-ABF0-7F8B2AED0D62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3316287" y="13685837"/>
-          <a:ext cx="219076" cy="2127250"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="左大括号 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DEBA1B-0D37-4DBF-B67F-A1A21BEE1A6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4756150" y="10287000"/>
-          <a:ext cx="531814" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>空字符串合并入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>samplease</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1226,15 +3455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O86"/>
+  <dimension ref="B2:Z86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="22" width="4.125" customWidth="1"/>
+    <col min="2" max="17" width="4.125" customWidth="1"/>
+    <col min="18" max="26" width="3.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -1383,7 +3613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -1404,7 +3634,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1414,17 +3644,17 @@
       <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="H19" s="8" t="s">
         <v>3</v>
       </c>
@@ -1444,7 +3674,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4</v>
+      </c>
+      <c r="W22" s="1">
+        <v>5</v>
+      </c>
+      <c r="X22" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="R23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -1465,7 +3753,7 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +3773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="H26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +3793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>0</v>
       </c>
@@ -1526,7 +3814,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +3987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>0</v>
       </c>
@@ -1728,7 +4016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +4045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K52" s="4" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +4059,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
+      <c r="T54" s="1">
+        <v>2</v>
+      </c>
+      <c r="U54" s="1">
+        <v>3</v>
+      </c>
+      <c r="V54" s="1">
+        <v>4</v>
+      </c>
+      <c r="W54" s="1">
+        <v>5</v>
+      </c>
+      <c r="X54" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="R55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>0</v>
       </c>
@@ -1800,7 +4146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +4175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K58" s="4" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +4189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>0</v>
       </c>
@@ -1872,7 +4218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:26" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>0</v>
       </c>
